--- a/data/Working_Final_Excel.xlsx
+++ b/data/Working_Final_Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trophic" sheetId="2" r:id="rId1"/>
     <sheet name="Biogeochemical" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="172">
   <si>
     <t>Location</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>Unsure of location.</t>
+  </si>
+  <si>
+    <t>mo</t>
   </si>
 </sst>
 </file>
@@ -2238,7 +2241,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection sqref="A1:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2293,170 +2296,161 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4">
-        <v>43.942709999999998</v>
+        <v>34.14</v>
       </c>
       <c r="E2" s="4">
-        <v>-71.694069999999996</v>
+        <v>-77.58</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4">
-        <v>43.948160000000001</v>
+        <v>34.068559999999998</v>
       </c>
       <c r="E3" s="4">
-        <v>-71.727149999999995</v>
+        <v>-77.933449999999993</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4">
-        <v>47.44661</v>
+        <v>38.295549999999999</v>
       </c>
       <c r="E4" s="4">
-        <v>-122.4796</v>
+        <v>-76.316559999999996</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4">
-        <v>47.44661</v>
+        <v>37.701860000000003</v>
       </c>
       <c r="E5" s="4">
-        <v>-122.4796</v>
+        <v>-76.105260000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D6" s="4">
-        <v>18.221599999999999</v>
+        <v>37.701860000000003</v>
       </c>
       <c r="E6" s="4">
-        <v>-66.483710000000002</v>
+        <v>-76.105260000000001</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D7" s="4">
-        <v>18.221599999999999</v>
+        <v>37.701860000000003</v>
       </c>
       <c r="E7" s="4">
-        <v>-66.483710000000002</v>
+        <v>-76.105260000000001</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="D8" s="4">
-        <v>18.221599999999999</v>
+        <v>37.701860000000003</v>
       </c>
       <c r="E8" s="4">
-        <v>-66.483710000000002</v>
+        <v>-76.105260000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D9" s="4">
-        <v>18.221599999999999</v>
+        <v>37.701860000000003</v>
       </c>
       <c r="E9" s="4">
-        <v>-66.483710000000002</v>
+        <v>-76.105260000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
       </c>
       <c r="D10" s="4">
-        <v>18.221599999999999</v>
+        <v>47.44661</v>
       </c>
       <c r="E10" s="4">
-        <v>-66.483710000000002</v>
+        <v>-122.4796</v>
       </c>
       <c r="F10" t="s">
         <v>127</v>
@@ -2464,16 +2458,16 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="D11" s="4">
-        <v>18.221599999999999</v>
+        <v>47.44661</v>
       </c>
       <c r="E11" s="4">
-        <v>-66.483710000000002</v>
+        <v>-122.4796</v>
       </c>
       <c r="F11" t="s">
         <v>127</v>
@@ -2481,81 +2475,96 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
       </c>
       <c r="D12" s="4">
-        <v>18.221599999999999</v>
+        <v>43.948160000000001</v>
       </c>
       <c r="E12" s="4">
-        <v>-66.483710000000002</v>
+        <v>-71.727149999999995</v>
       </c>
       <c r="F12" t="s">
         <v>127</v>
       </c>
+      <c r="M12" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
       </c>
       <c r="D13" s="4">
-        <v>18.221599999999999</v>
+        <v>43.942709999999998</v>
       </c>
       <c r="E13" s="4">
-        <v>-66.483710000000002</v>
+        <v>-71.694069999999996</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>146</v>
+      </c>
+      <c r="D14" s="4">
+        <v>34.222520000000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>-83.969189999999998</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
-      </c>
-      <c r="M14" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
-        <v>35.060070000000003</v>
+        <v>55.629559999999998</v>
       </c>
       <c r="E15" s="4">
-        <v>-76.537360000000007</v>
+        <v>17.007670000000001</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
       </c>
       <c r="D16" s="4">
         <v>35.060070000000003</v>
@@ -2569,10 +2578,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="4">
         <v>35.060070000000003</v>
@@ -2586,10 +2595,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D18" s="4">
         <v>35.060070000000003</v>
@@ -2603,10 +2612,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D19" s="4">
         <v>35.060070000000003</v>
@@ -2620,10 +2629,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D20" s="4">
         <v>35.060070000000003</v>
@@ -2637,10 +2646,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D21" s="4">
         <v>35.060070000000003</v>
@@ -2654,10 +2663,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D22" s="4">
         <v>35.060070000000003</v>
@@ -2671,10 +2680,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4">
         <v>35.060070000000003</v>
@@ -2688,10 +2697,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D24" s="4">
         <v>35.060070000000003</v>
@@ -2705,10 +2714,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4">
         <v>35.060070000000003</v>
@@ -2722,10 +2731,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4">
         <v>35.060070000000003</v>
@@ -2739,10 +2748,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D27" s="4">
         <v>35.060070000000003</v>
@@ -2756,10 +2765,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D28" s="4">
         <v>35.060070000000003</v>
@@ -2773,10 +2782,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D29" s="4">
         <v>35.060070000000003</v>
@@ -2790,10 +2799,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D30" s="4">
         <v>35.060070000000003</v>
@@ -2807,10 +2816,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D31" s="4">
         <v>35.060070000000003</v>
@@ -2824,213 +2833,210 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="D32" s="4">
-        <v>34.14</v>
+        <v>35.060070000000003</v>
       </c>
       <c r="E32" s="4">
-        <v>-77.58</v>
+        <v>-76.537360000000007</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>139</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
       </c>
       <c r="D33" s="4">
-        <v>34.068559999999998</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="E33" s="4">
-        <v>-77.933449999999993</v>
+        <v>-77.430000000000007</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D34" s="4">
-        <v>34.222520000000003</v>
+        <v>34.590000000000003</v>
       </c>
       <c r="E34" s="4">
-        <v>-83.969189999999998</v>
+        <v>-77.400000000000006</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D35" s="4">
-        <v>55.629559999999998</v>
+        <v>18.221599999999999</v>
       </c>
       <c r="E35" s="4">
-        <v>17.007670000000001</v>
+        <v>-66.483710000000002</v>
       </c>
       <c r="F35" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="M35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D36" s="4">
-        <v>38.295549999999999</v>
+        <v>18.221599999999999</v>
       </c>
       <c r="E36" s="4">
-        <v>-76.316559999999996</v>
+        <v>-66.483710000000002</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D37" s="4">
-        <v>37.701860000000003</v>
+        <v>18.221599999999999</v>
       </c>
       <c r="E37" s="4">
-        <v>-76.105260000000001</v>
+        <v>-66.483710000000002</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D38" s="4">
-        <v>37.701860000000003</v>
+        <v>18.221599999999999</v>
       </c>
       <c r="E38" s="4">
-        <v>-76.105260000000001</v>
+        <v>-66.483710000000002</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D39" s="4">
-        <v>37.701860000000003</v>
+        <v>18.221599999999999</v>
       </c>
       <c r="E39" s="4">
-        <v>-76.105260000000001</v>
+        <v>-66.483710000000002</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D40" s="4">
-        <v>37.701860000000003</v>
+        <v>18.221599999999999</v>
       </c>
       <c r="E40" s="4">
-        <v>-76.105260000000001</v>
+        <v>-66.483710000000002</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D41" s="4">
-        <v>37.701860000000003</v>
+        <v>18.221599999999999</v>
       </c>
       <c r="E41" s="4">
-        <v>-76.105260000000001</v>
+        <v>-66.483710000000002</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="4">
+        <v>18.221599999999999</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-66.483710000000002</v>
+      </c>
+      <c r="F42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
         <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="4">
-        <v>54.944290000000002</v>
-      </c>
-      <c r="E42" s="4">
-        <v>8.5953199999999992</v>
-      </c>
-      <c r="F42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>70</v>
       </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
       <c r="D43" s="4">
         <v>54.944290000000002</v>
       </c>
@@ -3041,44 +3047,44 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:13">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="D44" s="4">
-        <v>34.729999999999997</v>
+        <v>54.944290000000002</v>
       </c>
       <c r="E44" s="4">
-        <v>-77.430000000000007</v>
+        <v>8.5953199999999992</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="4">
-        <v>34.590000000000003</v>
-      </c>
-      <c r="E45" s="4">
-        <v>-77.400000000000006</v>
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="M45" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M45">
+    <sortCondition ref="B2:B45"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
